--- a/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H2">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.5005493800982</v>
+        <v>58.88086666666666</v>
       </c>
       <c r="N2">
-        <v>37.5005493800982</v>
+        <v>176.6426</v>
       </c>
       <c r="O2">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293818</v>
       </c>
       <c r="P2">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293819</v>
       </c>
       <c r="Q2">
-        <v>50.05551709706554</v>
+        <v>81.76028353515554</v>
       </c>
       <c r="R2">
-        <v>50.05551709706554</v>
+        <v>735.8425518163998</v>
       </c>
       <c r="S2">
-        <v>0.07046253433205193</v>
+        <v>0.09930659582408281</v>
       </c>
       <c r="T2">
-        <v>0.07046253433205193</v>
+        <v>0.09930659582408284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H3">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>110.733525094454</v>
+        <v>110.7417803333333</v>
       </c>
       <c r="N3">
-        <v>110.733525094454</v>
+        <v>332.225341</v>
       </c>
       <c r="O3">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448766</v>
       </c>
       <c r="P3">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448767</v>
       </c>
       <c r="Q3">
-        <v>147.8064708440083</v>
+        <v>153.7728615731638</v>
       </c>
       <c r="R3">
-        <v>147.8064708440083</v>
+        <v>1383.955754158474</v>
       </c>
       <c r="S3">
-        <v>0.2080653468457711</v>
+        <v>0.1867735623298405</v>
       </c>
       <c r="T3">
-        <v>0.2080653468457711</v>
+        <v>0.1867735623298406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H4">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.2033248491884</v>
+        <v>39.29429233333334</v>
       </c>
       <c r="N4">
-        <v>39.2033248491884</v>
+        <v>117.882877</v>
       </c>
       <c r="O4">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="P4">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="Q4">
-        <v>52.32837197557946</v>
+        <v>54.56292789768644</v>
       </c>
       <c r="R4">
-        <v>52.32837197557946</v>
+        <v>491.066351079178</v>
       </c>
       <c r="S4">
-        <v>0.07366200412473234</v>
+        <v>0.06627250290031436</v>
       </c>
       <c r="T4">
-        <v>0.07366200412473234</v>
+        <v>0.06627250290031438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H5">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.5005493800982</v>
+        <v>58.88086666666666</v>
       </c>
       <c r="N5">
-        <v>37.5005493800982</v>
+        <v>176.6426</v>
       </c>
       <c r="O5">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293818</v>
       </c>
       <c r="P5">
-        <v>0.2000697273617605</v>
+        <v>0.2818386429293819</v>
       </c>
       <c r="Q5">
-        <v>92.07098677474328</v>
+        <v>150.2807724072889</v>
       </c>
       <c r="R5">
-        <v>92.07098677474328</v>
+        <v>1352.5269516656</v>
       </c>
       <c r="S5">
-        <v>0.1296071930297085</v>
+        <v>0.182532047105299</v>
       </c>
       <c r="T5">
-        <v>0.1296071930297085</v>
+        <v>0.1825320471052991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H6">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.733525094454</v>
+        <v>110.7417803333333</v>
       </c>
       <c r="N6">
-        <v>110.733525094454</v>
+        <v>332.225341</v>
       </c>
       <c r="O6">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448766</v>
       </c>
       <c r="P6">
-        <v>0.5907760430627604</v>
+        <v>0.5300756400448767</v>
       </c>
       <c r="Q6">
-        <v>271.8718816930964</v>
+        <v>282.6446217319885</v>
       </c>
       <c r="R6">
-        <v>271.8718816930964</v>
+        <v>2543.801595587896</v>
       </c>
       <c r="S6">
-        <v>0.3827106962169893</v>
+        <v>0.3433020777150361</v>
       </c>
       <c r="T6">
-        <v>0.3827106962169893</v>
+        <v>0.3433020777150362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H7">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.2033248491884</v>
+        <v>39.29429233333334</v>
       </c>
       <c r="N7">
-        <v>39.2033248491884</v>
+        <v>117.882877</v>
       </c>
       <c r="O7">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="P7">
-        <v>0.2091542295754792</v>
+        <v>0.1880857170257415</v>
       </c>
       <c r="Q7">
-        <v>96.25162466636209</v>
+        <v>100.2902460060791</v>
       </c>
       <c r="R7">
-        <v>96.25162466636209</v>
+        <v>902.6122140547121</v>
       </c>
       <c r="S7">
-        <v>0.1354922254507468</v>
+        <v>0.1218132141254271</v>
       </c>
       <c r="T7">
-        <v>0.1354922254507468</v>
+        <v>0.1218132141254271</v>
       </c>
     </row>
   </sheetData>
